--- a/MainTop/21.12.2025 имена/21.12.2025 имена.xlsx
+++ b/MainTop/21.12.2025 имена/21.12.2025 имена.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\21.12.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\21.12.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F6C126-5DC4-4006-9C35-7595AB4595FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCE2E30-A6ED-4B6C-9445-9462B937C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,10 +171,10 @@
     <t>OZN1296068464</t>
   </si>
   <si>
-    <t>штриход</t>
-  </si>
-  <si>
-    <t>артикул</t>
+    <t>Артикул</t>
+  </si>
+  <si>
+    <t>штрихкод</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +506,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
